--- a/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>123344</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105385</v>
+        <v>103533</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>146246</v>
+        <v>143312</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1635115420039444</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1397040992009423</v>
+        <v>0.1372488131288598</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.193870456120944</v>
+        <v>0.1899815363982583</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -762,19 +762,19 @@
         <v>139589</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118028</v>
+        <v>117580</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164654</v>
+        <v>164148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1406795781128247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1189500943503721</v>
+        <v>0.1184987143809752</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1659403579813013</v>
+        <v>0.1654300795607428</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>249</v>
@@ -783,19 +783,19 @@
         <v>262934</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>234552</v>
+        <v>233183</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>293432</v>
+        <v>295153</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1505405931437645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1342907357271823</v>
+        <v>0.1335072932937998</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1680020016095264</v>
+        <v>0.1689876888928605</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>19283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12010</v>
+        <v>12074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28327</v>
+        <v>29467</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02556190961311509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01592077329110185</v>
+        <v>0.01600594494162539</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03755140017888412</v>
+        <v>0.03906274747063433</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -833,19 +833,19 @@
         <v>11143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5935</v>
+        <v>5613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18618</v>
+        <v>19492</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01123012502304514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005981499659557072</v>
+        <v>0.005656695732455988</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01876311347896217</v>
+        <v>0.01964408252494848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -854,19 +854,19 @@
         <v>30426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21572</v>
+        <v>20731</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42662</v>
+        <v>42653</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0174199536307296</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01235084335217153</v>
+        <v>0.01186953405453458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02442573387449556</v>
+        <v>0.02442055246922284</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8494</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4059</v>
+        <v>4044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15642</v>
+        <v>15913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01125959485018127</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005380540438512144</v>
+        <v>0.005360936769999074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02073566733931829</v>
+        <v>0.02109441428972784</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>7220</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2830</v>
+        <v>2604</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15726</v>
+        <v>15292</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007275939603766729</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002852291097165254</v>
+        <v>0.002624423370168519</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01584852010198315</v>
+        <v>0.01541171691145813</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -925,19 +925,19 @@
         <v>15713</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9132</v>
+        <v>8590</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26378</v>
+        <v>25690</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008996461081914946</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005228536850290337</v>
+        <v>0.004918403246100398</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01510244423987318</v>
+        <v>0.01470887311895852</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>8268</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3482</v>
+        <v>3759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15974</v>
+        <v>16129</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01096005606311579</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004615783306419742</v>
+        <v>0.004982891014400126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02117620286782337</v>
+        <v>0.02138187349904977</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -975,19 +975,19 @@
         <v>12623</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7122</v>
+        <v>6611</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21940</v>
+        <v>21122</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01272176482629946</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007177836358683395</v>
+        <v>0.006662970933367271</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02211156274827801</v>
+        <v>0.02128676284987105</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -996,19 +996,19 @@
         <v>20891</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13106</v>
+        <v>12327</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31307</v>
+        <v>31922</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01196089131245122</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007503693926725714</v>
+        <v>0.007057915934199632</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01792472300339074</v>
+        <v>0.01827665203014508</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>594959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>571556</v>
+        <v>571939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>615414</v>
+        <v>618703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7887068974696435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7576832652726191</v>
+        <v>0.7581912049056063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8158232742446929</v>
+        <v>0.8201835660274263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>737</v>
@@ -1046,19 +1046,19 @@
         <v>821675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>797975</v>
+        <v>795765</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>845966</v>
+        <v>845900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.828092592434064</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8042079576226406</v>
+        <v>0.8019805688868231</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8525739248734591</v>
+        <v>0.8525068504786824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1338</v>
@@ -1067,19 +1067,19 @@
         <v>1416634</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1380952</v>
+        <v>1383105</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1447303</v>
+        <v>1446922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8110821008311397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7906531955126282</v>
+        <v>0.7918854409703404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8286415714759593</v>
+        <v>0.828423594101361</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>282870</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>252021</v>
+        <v>249664</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>315360</v>
+        <v>312593</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1362945582243552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1214307046840767</v>
+        <v>0.1202947296794917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1519489441873935</v>
+        <v>0.1506155679730271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>263</v>
@@ -1192,19 +1192,19 @@
         <v>263248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>235693</v>
+        <v>233553</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>293479</v>
+        <v>295967</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.13272988855863</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1188366488245786</v>
+        <v>0.1177575552083681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1479719972806121</v>
+        <v>0.1492267699336327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>530</v>
@@ -1213,19 +1213,19 @@
         <v>546119</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>502850</v>
+        <v>500871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>593238</v>
+        <v>588954</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1345526648531142</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1238920932156655</v>
+        <v>0.1234046497589778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1461619382476501</v>
+        <v>0.1451064518109657</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>42363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31353</v>
+        <v>30424</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56953</v>
+        <v>56091</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02041177830488771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01510672606463511</v>
+        <v>0.01465922915179989</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02744143677086298</v>
+        <v>0.02702625445670642</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -1263,19 +1263,19 @@
         <v>28467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19781</v>
+        <v>19279</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40406</v>
+        <v>39530</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01435331637987609</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009973828296884726</v>
+        <v>0.009720538312232765</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02037292983115463</v>
+        <v>0.01993087526410069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -1284,19 +1284,19 @@
         <v>70831</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>55227</v>
+        <v>53523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90445</v>
+        <v>87334</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01745128107605203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01360679030879351</v>
+        <v>0.01318701314410409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02228383443854502</v>
+        <v>0.02151729243378805</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>52447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39073</v>
+        <v>38977</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>68347</v>
+        <v>68594</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02527017028002246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01882633713453743</v>
+        <v>0.01878014509335576</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03293130181653343</v>
+        <v>0.03305043283622647</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -1334,19 +1334,19 @@
         <v>27938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19209</v>
+        <v>18381</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39365</v>
+        <v>39469</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01408638294342878</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009685229585999712</v>
+        <v>0.009267603787142547</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01984784118405891</v>
+        <v>0.01990009991493574</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>76</v>
@@ -1355,19 +1355,19 @@
         <v>80385</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63812</v>
+        <v>61779</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101388</v>
+        <v>99046</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01980515757090823</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01572202056991145</v>
+        <v>0.01522121633484564</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02497985397794459</v>
+        <v>0.02440292558693592</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>63240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48598</v>
+        <v>48961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81163</v>
+        <v>81466</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03047074575673176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02341583971855511</v>
+        <v>0.0235909200997583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03910646238018654</v>
+        <v>0.03925268515115982</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1405,19 +1405,19 @@
         <v>42022</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30543</v>
+        <v>29762</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57422</v>
+        <v>56315</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02118750679758761</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01539973686029724</v>
+        <v>0.01500612487675403</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02895196223337322</v>
+        <v>0.0283941442972351</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -1426,19 +1426,19 @@
         <v>105262</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86940</v>
+        <v>86209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126687</v>
+        <v>130730</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02593444536344127</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02142020738763285</v>
+        <v>0.02124013205026514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03121324834815806</v>
+        <v>0.03220912019522751</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>1634513</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1590690</v>
+        <v>1600396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1670606</v>
+        <v>1673479</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7875527474340029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7664377276547742</v>
+        <v>0.7711141344142833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.804943442155142</v>
+        <v>0.8063274559984814</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1544</v>
@@ -1476,19 +1476,19 @@
         <v>1621663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1587243</v>
+        <v>1584582</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1652490</v>
+        <v>1655501</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8176429053204775</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8002880869402704</v>
+        <v>0.7989464658289479</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8331860636397592</v>
+        <v>0.8347041276669662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3081</v>
@@ -1497,19 +1497,19 @@
         <v>3256177</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3202446</v>
+        <v>3205909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3307914</v>
+        <v>3309979</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8022564511364844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7890182041857494</v>
+        <v>0.7898714783491128</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8150034753852063</v>
+        <v>0.8155121128724633</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>64643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49941</v>
+        <v>50279</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80830</v>
+        <v>81631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1185787256804882</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09160895094078274</v>
+        <v>0.09222921443010376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1482703470534181</v>
+        <v>0.1497393919469443</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -1622,19 +1622,19 @@
         <v>50687</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38174</v>
+        <v>38032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65053</v>
+        <v>68138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.092973810955855</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07002189238391222</v>
+        <v>0.06976105126691101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1193246499895606</v>
+        <v>0.1249832677288028</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -1643,19 +1643,19 @@
         <v>115330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93242</v>
+        <v>96289</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137142</v>
+        <v>136748</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1057759509345669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0855175831534518</v>
+        <v>0.08831230007918457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1257802246165145</v>
+        <v>0.1254195875140098</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>3123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9087</v>
+        <v>9068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005728122303146443</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001758979804029924</v>
+        <v>0.001778521131581911</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01666967905221108</v>
+        <v>0.01663397598458964</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1693,19 +1693,19 @@
         <v>7590</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2974</v>
+        <v>3782</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13999</v>
+        <v>14717</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01392117808351375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005455172109093484</v>
+        <v>0.006937222573205071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02567788204632943</v>
+        <v>0.02699417604825285</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1714,19 +1714,19 @@
         <v>10712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5764</v>
+        <v>5065</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18360</v>
+        <v>17806</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009824751749676017</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005286682573214394</v>
+        <v>0.004645229844491654</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01683940776267508</v>
+        <v>0.01633078178066737</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>9957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4972</v>
+        <v>4803</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18171</v>
+        <v>17465</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01826466508207652</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009121151868266933</v>
+        <v>0.008810679646229473</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03333195111201047</v>
+        <v>0.03203685750099747</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -1764,19 +1764,19 @@
         <v>18614</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11728</v>
+        <v>11677</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28604</v>
+        <v>28203</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03414349776674767</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02151296102159618</v>
+        <v>0.02141897312688972</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0524676933295172</v>
+        <v>0.05173085325464085</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -1785,19 +1785,19 @@
         <v>28571</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18382</v>
+        <v>19495</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39865</v>
+        <v>40117</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02620427824917054</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0168595484244365</v>
+        <v>0.01787982941368808</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03656229138031045</v>
+        <v>0.03679358629329678</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>9651</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4865</v>
+        <v>4928</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16880</v>
+        <v>18568</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01770268981115643</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008924209698795054</v>
+        <v>0.009039504427026938</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03096461308494433</v>
+        <v>0.03406071608011686</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1835,19 +1835,19 @@
         <v>15502</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8200</v>
+        <v>9091</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24704</v>
+        <v>25528</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02843388892282432</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01504181577297598</v>
+        <v>0.01667467829057044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04531329229156156</v>
+        <v>0.04682440249670814</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1856,19 +1856,19 @@
         <v>25152</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16694</v>
+        <v>16898</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36428</v>
+        <v>37979</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02306842238468223</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01531062638482736</v>
+        <v>0.01549796434375855</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03341013364537866</v>
+        <v>0.03483275357421588</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>457777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>439581</v>
+        <v>439343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>474377</v>
+        <v>474878</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8397257971231324</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8063465954178619</v>
+        <v>0.8059110355108677</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8701753230720062</v>
+        <v>0.8710948443760542</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>432</v>
@@ -1906,19 +1906,19 @@
         <v>452785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>435590</v>
+        <v>430686</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>468608</v>
+        <v>469023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8305276242710593</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7989864313638404</v>
+        <v>0.7899917668115796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8595507678610649</v>
+        <v>0.8603125453842542</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>850</v>
@@ -1927,19 +1927,19 @@
         <v>910562</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>886196</v>
+        <v>881334</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>935340</v>
+        <v>932537</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8351265966819044</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8127793565707736</v>
+        <v>0.8083198284210666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8578519277833122</v>
+        <v>0.8552813598199007</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>470858</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>428787</v>
+        <v>431883</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>511542</v>
+        <v>513656</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1395163265493486</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1270504981042648</v>
+        <v>0.1279680701461395</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1515710237089944</v>
+        <v>0.1521975252083577</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>436</v>
@@ -2052,19 +2052,19 @@
         <v>453525</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>416341</v>
+        <v>414744</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>496772</v>
+        <v>493355</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1288142511320865</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1182528183409817</v>
+        <v>0.1177993089195584</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1410977048068747</v>
+        <v>0.1401271835300604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>887</v>
@@ -2073,19 +2073,19 @@
         <v>924383</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>870129</v>
+        <v>869552</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>981140</v>
+        <v>982268</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1340521204678619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1261842912553126</v>
+        <v>0.1261006490725635</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1422828651176403</v>
+        <v>0.1424464744857108</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>64769</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>50558</v>
+        <v>50576</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82155</v>
+        <v>81655</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01919106581522083</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01498046683640001</v>
+        <v>0.01498575174047335</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02434263969215417</v>
+        <v>0.02419466335439565</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>47</v>
@@ -2123,19 +2123,19 @@
         <v>47200</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35616</v>
+        <v>34597</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>62066</v>
+        <v>61404</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01340619914518809</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01011607981564702</v>
+        <v>0.009826653511982177</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01762859856935696</v>
+        <v>0.01744050414650669</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>110</v>
@@ -2144,19 +2144,19 @@
         <v>111969</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>91826</v>
+        <v>92403</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>134110</v>
+        <v>134806</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01623746079875859</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01331644730038593</v>
+        <v>0.01340005249178701</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01944838019233117</v>
+        <v>0.01954924606995027</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>70897</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55210</v>
+        <v>54131</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89273</v>
+        <v>90508</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02100700496820003</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01635883119477843</v>
+        <v>0.01603925747452114</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02645193530365234</v>
+        <v>0.02681766141003291</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -2194,19 +2194,19 @@
         <v>53772</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>40785</v>
+        <v>40557</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>69337</v>
+        <v>71509</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01527278034302162</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01158408321385106</v>
+        <v>0.01151922770950918</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01969360990657267</v>
+        <v>0.02031052483345971</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>119</v>
@@ -2215,19 +2215,19 @@
         <v>124669</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103502</v>
+        <v>104598</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>149874</v>
+        <v>149321</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.018079256485044</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01500966932418564</v>
+        <v>0.01516858225278556</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02173443636954231</v>
+        <v>0.02165421653698116</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>81158</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63707</v>
+        <v>64091</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99718</v>
+        <v>101280</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02404740230258708</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01887663405205323</v>
+        <v>0.01899027065858814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02954675515289343</v>
+        <v>0.03000964656596805</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -2265,19 +2265,19 @@
         <v>70147</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53909</v>
+        <v>54374</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87576</v>
+        <v>87966</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01992370055288305</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0153116304036308</v>
+        <v>0.01544374504043569</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02487401274868251</v>
+        <v>0.02498501682499921</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>143</v>
@@ -2286,19 +2286,19 @@
         <v>151305</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>129374</v>
+        <v>126189</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>180673</v>
+        <v>177866</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02194194562241592</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01876155724106302</v>
+        <v>0.01829967812692436</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02620086799406052</v>
+        <v>0.02579382863283557</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>2687249</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2646047</v>
+        <v>2640126</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2737753</v>
+        <v>2734438</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7962382003646434</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7840301021151466</v>
+        <v>0.782275632744309</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8112026253478385</v>
+        <v>0.8102204920393471</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2713</v>
@@ -2336,19 +2336,19 @@
         <v>2896123</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2843980</v>
+        <v>2850206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2938694</v>
+        <v>2939592</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8225830688268208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8077727388808084</v>
+        <v>0.8095412166203153</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8346743331563039</v>
+        <v>0.8349294747601368</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5269</v>
@@ -2357,19 +2357,19 @@
         <v>5583372</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5520122</v>
+        <v>5511173</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5647140</v>
+        <v>5646408</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8096892166259196</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8005167328993463</v>
+        <v>0.7992190187315987</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8189367065169264</v>
+        <v>0.8188305468293929</v>
       </c>
     </row>
     <row r="27">
